--- a/Document/材料清单&引脚标号&数据帧规则.xlsx
+++ b/Document/材料清单&引脚标号&数据帧规则.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="214">
   <si>
     <t>结构分类</t>
   </si>
@@ -166,6 +166,18 @@
     <t>TB1_PWMB</t>
   </si>
   <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>TIM2_CH2</t>
+  </si>
+  <si>
+    <t>底部旋转舵机</t>
+  </si>
+  <si>
+    <t>TB2_PWMA</t>
+  </si>
+  <si>
     <t>PA2</t>
   </si>
   <si>
@@ -175,7 +187,7 @@
     <t>夹取舵机</t>
   </si>
   <si>
-    <t>TB2_PWMA</t>
+    <t>TB2_PWMB</t>
   </si>
   <si>
     <t>PA3</t>
@@ -187,154 +199,145 @@
     <t>旋转舵机</t>
   </si>
   <si>
-    <t>TB2_PWMB</t>
+    <t>SERVO</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>TIM4_CH2</t>
+  </si>
+  <si>
+    <t>直线模组电机平移</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>TIM8_CH1</t>
+  </si>
+  <si>
+    <t>装配圆盘PUL</t>
+  </si>
+  <si>
+    <t>PUL</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>TARANS</t>
+  </si>
+  <si>
+    <t>传送带启停端</t>
+  </si>
+  <si>
+    <t>D+</t>
+  </si>
+  <si>
+    <t>连接传送带启停端</t>
+  </si>
+  <si>
+    <t>PLANT_DIR</t>
+  </si>
+  <si>
+    <t>装配圆盘DIR</t>
+  </si>
+  <si>
+    <t>DIR</t>
+  </si>
+  <si>
+    <t>PC15</t>
+  </si>
+  <si>
+    <t>PLANT_EN</t>
+  </si>
+  <si>
+    <t>装配圆盘EN</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>MOTOR1_AIN_1</t>
+  </si>
+  <si>
+    <t>MOTOR1DIR</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>TB1_AIN1</t>
+  </si>
+  <si>
+    <t>MOTOR1</t>
+  </si>
+  <si>
+    <t>大臂电机</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>MOTOR1_AIN_2</t>
+  </si>
+  <si>
+    <t>TB1_AIN2</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>MOTOR2_BIN_1</t>
+  </si>
+  <si>
+    <t>MOTOR2DIR</t>
+  </si>
+  <si>
+    <t>TB1_BIN1</t>
+  </si>
+  <si>
+    <t>MOTOR2</t>
+  </si>
+  <si>
+    <t>小臂电机</t>
+  </si>
+  <si>
+    <t>PC14</t>
+  </si>
+  <si>
+    <t>MOTOR2_BIN_2</t>
+  </si>
+  <si>
+    <t>TB1_BIN2</t>
+  </si>
+  <si>
+    <t>MOTOR3_AIN_1</t>
+  </si>
+  <si>
+    <t>MOTOR3DIR</t>
+  </si>
+  <si>
+    <t>TB2_AIN1</t>
+  </si>
+  <si>
+    <t>MOTOR3</t>
+  </si>
+  <si>
+    <t>底部旋转电机</t>
+  </si>
+  <si>
+    <t>MOTOR3_AIN_2</t>
+  </si>
+  <si>
+    <t>TB2_AIN2</t>
   </si>
   <si>
     <t>PB6</t>
-  </si>
-  <si>
-    <t>TIM4_CH1</t>
-  </si>
-  <si>
-    <t>底部旋转电机</t>
-  </si>
-  <si>
-    <t>SERVO</t>
-  </si>
-  <si>
-    <t>PB7</t>
-  </si>
-  <si>
-    <t>TIM4_CH2</t>
-  </si>
-  <si>
-    <t>直线模组电机平移</t>
-  </si>
-  <si>
-    <t>PC6</t>
-  </si>
-  <si>
-    <t>TIM8_CH1</t>
-  </si>
-  <si>
-    <t>装配圆盘PUL</t>
-  </si>
-  <si>
-    <t>PUL</t>
-  </si>
-  <si>
-    <t>PC7</t>
-  </si>
-  <si>
-    <t>TARANS</t>
-  </si>
-  <si>
-    <t>传送带启停端</t>
-  </si>
-  <si>
-    <t>D+</t>
-  </si>
-  <si>
-    <t>连接传送带启停端</t>
-  </si>
-  <si>
-    <t>PA1</t>
-  </si>
-  <si>
-    <t>PLANT_DIR</t>
-  </si>
-  <si>
-    <t>装配圆盘DIR</t>
-  </si>
-  <si>
-    <t>DIR</t>
-  </si>
-  <si>
-    <t>PC15</t>
-  </si>
-  <si>
-    <t>PLANT_EN</t>
-  </si>
-  <si>
-    <t>装配圆盘EN</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>PB3</t>
-  </si>
-  <si>
-    <t>MOTOR1_AIN_1</t>
-  </si>
-  <si>
-    <t>MOTOR1DIR</t>
-  </si>
-  <si>
-    <t>取消</t>
-  </si>
-  <si>
-    <t>TB1_AIN1</t>
-  </si>
-  <si>
-    <t>MOTOR1</t>
-  </si>
-  <si>
-    <t>大臂电机</t>
-  </si>
-  <si>
-    <t>PB4</t>
-  </si>
-  <si>
-    <t>MOTOR1_AIN_2</t>
-  </si>
-  <si>
-    <t>TB1_AIN2</t>
-  </si>
-  <si>
-    <t>PB5</t>
-  </si>
-  <si>
-    <t>MOTOR2_BIN_1</t>
-  </si>
-  <si>
-    <t>MOTOR2DIR</t>
-  </si>
-  <si>
-    <t>TB1_BIN1</t>
-  </si>
-  <si>
-    <t>MOTOR2</t>
-  </si>
-  <si>
-    <t>小臂电机</t>
-  </si>
-  <si>
-    <t>PC14</t>
-  </si>
-  <si>
-    <t>MOTOR2_BIN_2</t>
-  </si>
-  <si>
-    <t>TB1_BIN2</t>
-  </si>
-  <si>
-    <t>MOTOR3_AIN_1</t>
-  </si>
-  <si>
-    <t>MOTOR3DIR</t>
-  </si>
-  <si>
-    <t>TB2_AIN1</t>
-  </si>
-  <si>
-    <t>MOTOR3</t>
-  </si>
-  <si>
-    <t>MOTOR3_AIN_2</t>
-  </si>
-  <si>
-    <t>TB2_AIN2</t>
   </si>
   <si>
     <t>MOTOR4_BIN_1</t>
@@ -846,12 +849,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1076,10 +1085,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1089,10 +1098,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </right>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1238,7 +1247,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1262,16 +1271,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1280,89 +1289,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1373,30 +1382,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1751,222 +1763,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16">
         <v>1</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16">
         <v>1</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16">
         <v>1</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="16">
         <v>49.9</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="16">
         <v>49.9</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="16">
         <v>71.88</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="16">
         <v>71.88</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16">
         <v>5</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16">
         <v>1</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="16">
         <v>1</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16">
         <v>2</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1982,7 +1994,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E12" sqref="E12:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2048,13 +2060,13 @@
       <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
@@ -2077,11 +2089,11 @@
       <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="J3" s="2" t="s">
@@ -2094,18 +2106,18 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="J4" s="2" t="s">
@@ -2125,11 +2137,11 @@
       <c r="C5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="J5" s="2" t="s">
@@ -2149,11 +2161,11 @@
       <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="J6" s="2"/>
@@ -2162,7 +2174,7 @@
         <v>56</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -2175,11 +2187,11 @@
       <c r="C7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="J7" s="2"/>
@@ -2188,7 +2200,7 @@
         <v>56</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -2204,6 +2216,7 @@
       <c r="D8" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="E8" s="7"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2244,13 +2257,13 @@
     <row r="10" spans="1:17">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2260,20 +2273,20 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2283,147 +2296,147 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="P11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="2"/>
       <c r="M12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6"/>
+      <c r="D13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14" s="2"/>
       <c r="M14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="6"/>
+      <c r="D15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K16" s="2"/>
       <c r="M16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="J17" s="2" t="s">
@@ -2434,65 +2447,65 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="6"/>
+      <c r="D18" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="6"/>
+      <c r="C19" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>112</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2503,15 +2516,15 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>114</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2522,14 +2535,14 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="12"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="13"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -2539,14 +2552,14 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="C23" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="13"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -2558,13 +2571,13 @@
     <row r="24" spans="1:14">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2577,13 +2590,13 @@
     <row r="25" spans="1:14">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2596,22 +2609,22 @@
     <row r="26" spans="1:14">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -2621,22 +2634,22 @@
     <row r="27" spans="1:14">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -2644,15 +2657,15 @@
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>136</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2663,15 +2676,15 @@
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>139</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2684,13 +2697,13 @@
     <row r="30" spans="1:14">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2703,13 +2716,13 @@
     <row r="31" spans="1:14">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2722,10 +2735,10 @@
     <row r="32" spans="1:14">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D32" s="2"/>
       <c r="F32" s="2"/>
@@ -2739,10 +2752,10 @@
     <row r="33" spans="1:14">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D33" s="2"/>
       <c r="F33" s="2"/>
@@ -2755,25 +2768,25 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2"/>
-      <c r="B34" s="13" t="s">
-        <v>150</v>
+      <c r="B34" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="H34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2781,40 +2794,40 @@
     <row r="35" spans="1:14">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="H35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15" t="s">
         <v>159</v>
       </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15" t="s">
+        <v>160</v>
+      </c>
       <c r="J36" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2822,11 +2835,11 @@
     <row r="37" spans="1:14">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -2836,19 +2849,19 @@
     <row r="38" spans="1:14">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -2857,23 +2870,23 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K39" s="2"/>
       <c r="M39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="10:14">
       <c r="J40" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K40" s="2"/>
       <c r="M40" s="2"/>
@@ -2881,19 +2894,19 @@
     </row>
     <row r="41" spans="10:14">
       <c r="J41" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K41" s="2"/>
       <c r="M41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="42" spans="10:14">
       <c r="J42" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K42" s="2"/>
       <c r="M42" s="2"/>
@@ -2901,19 +2914,19 @@
     </row>
     <row r="43" spans="10:14">
       <c r="J43" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K43" s="2"/>
       <c r="M43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="44" spans="10:14">
       <c r="J44" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K44" s="2"/>
       <c r="M44" s="2"/>
@@ -2921,19 +2934,19 @@
     </row>
     <row r="45" spans="10:14">
       <c r="J45" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K45" s="2"/>
       <c r="M45" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="10:14">
       <c r="J46" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K46" s="2"/>
       <c r="M46" s="2"/>
@@ -2967,10 +2980,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s">
         <v>31</v>
@@ -2978,128 +2991,128 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B14">
         <v>115200</v>

--- a/Document/材料清单&引脚标号&数据帧规则.xlsx
+++ b/Document/材料清单&引脚标号&数据帧规则.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="15240" activeTab="1"/>
+    <workbookView windowWidth="25590" windowHeight="15240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="材料表" sheetId="1" r:id="rId1"/>
     <sheet name="引脚" sheetId="2" r:id="rId2"/>
     <sheet name="数据帧规则" sheetId="3" r:id="rId3"/>
+    <sheet name="角度对应规则" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="157">
   <si>
     <t>结构分类</t>
   </si>
@@ -145,13 +146,10 @@
     <t>大臂舵机</t>
   </si>
   <si>
-    <t>变更</t>
-  </si>
-  <si>
     <t>接线端子</t>
   </si>
   <si>
-    <t>TB1_PWMA</t>
+    <t>SERVO1</t>
   </si>
   <si>
     <t>PA11</t>
@@ -163,7 +161,7 @@
     <t>小臂舵机</t>
   </si>
   <si>
-    <t>TB1_PWMB</t>
+    <t>SERVO2</t>
   </si>
   <si>
     <t>PA1</t>
@@ -175,7 +173,7 @@
     <t>底部旋转舵机</t>
   </si>
   <si>
-    <t>TB2_PWMA</t>
+    <t>SERVO3</t>
   </si>
   <si>
     <t>PA2</t>
@@ -184,45 +182,30 @@
     <t>TIM2_CH3</t>
   </si>
   <si>
+    <t>机械爪夹取舵机</t>
+  </si>
+  <si>
+    <t>SERVO4</t>
+  </si>
+  <si>
     <t>夹取舵机</t>
   </si>
   <si>
-    <t>TB2_PWMB</t>
-  </si>
-  <si>
     <t>PA3</t>
   </si>
   <si>
     <t>TIM2_CH4</t>
   </si>
   <si>
+    <t>机械爪旋转舵机</t>
+  </si>
+  <si>
+    <t>SERVO5</t>
+  </si>
+  <si>
     <t>旋转舵机</t>
   </si>
   <si>
-    <t>SERVO</t>
-  </si>
-  <si>
-    <t>PB7</t>
-  </si>
-  <si>
-    <t>TIM4_CH2</t>
-  </si>
-  <si>
-    <t>直线模组电机平移</t>
-  </si>
-  <si>
-    <t>PC6</t>
-  </si>
-  <si>
-    <t>TIM8_CH1</t>
-  </si>
-  <si>
-    <t>装配圆盘PUL</t>
-  </si>
-  <si>
-    <t>PUL</t>
-  </si>
-  <si>
     <t>PC7</t>
   </si>
   <si>
@@ -262,148 +245,28 @@
     <t>PB3</t>
   </si>
   <si>
-    <t>MOTOR1_AIN_1</t>
-  </si>
-  <si>
-    <t>MOTOR1DIR</t>
-  </si>
-  <si>
-    <t>取消</t>
-  </si>
-  <si>
-    <t>TB1_AIN1</t>
-  </si>
-  <si>
-    <t>MOTOR1</t>
-  </si>
-  <si>
-    <t>大臂电机</t>
+    <t>MOTOR1_PUL</t>
+  </si>
+  <si>
+    <t>底部步进电机PUL</t>
   </si>
   <si>
     <t>PB4</t>
   </si>
   <si>
-    <t>MOTOR1_AIN_2</t>
-  </si>
-  <si>
-    <t>TB1_AIN2</t>
+    <t>MOTOR1_DIR</t>
+  </si>
+  <si>
+    <t>底部步进电机DIR</t>
   </si>
   <si>
     <t>PB5</t>
   </si>
   <si>
-    <t>MOTOR2_BIN_1</t>
-  </si>
-  <si>
-    <t>MOTOR2DIR</t>
-  </si>
-  <si>
-    <t>TB1_BIN1</t>
-  </si>
-  <si>
-    <t>MOTOR2</t>
-  </si>
-  <si>
-    <t>小臂电机</t>
-  </si>
-  <si>
-    <t>PC14</t>
-  </si>
-  <si>
-    <t>MOTOR2_BIN_2</t>
-  </si>
-  <si>
-    <t>TB1_BIN2</t>
-  </si>
-  <si>
-    <t>MOTOR3_AIN_1</t>
-  </si>
-  <si>
-    <t>MOTOR3DIR</t>
-  </si>
-  <si>
-    <t>TB2_AIN1</t>
-  </si>
-  <si>
-    <t>MOTOR3</t>
-  </si>
-  <si>
-    <t>底部旋转电机</t>
-  </si>
-  <si>
-    <t>MOTOR3_AIN_2</t>
-  </si>
-  <si>
-    <t>TB2_AIN2</t>
-  </si>
-  <si>
-    <t>PB6</t>
-  </si>
-  <si>
-    <t>MOTOR4_BIN_1</t>
-  </si>
-  <si>
-    <t>MOTOR4DIR</t>
-  </si>
-  <si>
-    <t>TB2_BIN1</t>
-  </si>
-  <si>
-    <t>MOTOR4</t>
-  </si>
-  <si>
-    <t>直线模组平移电机·</t>
-  </si>
-  <si>
-    <t>MOTOR4_BIN_2</t>
-  </si>
-  <si>
-    <t>TB2_BIN2</t>
-  </si>
-  <si>
-    <t>暂不启用</t>
-  </si>
-  <si>
-    <t>PC13</t>
-  </si>
-  <si>
-    <t>I2C1_SCL</t>
-  </si>
-  <si>
-    <t>显示屏时钟端</t>
-  </si>
-  <si>
-    <t>I2C1_SDA</t>
-  </si>
-  <si>
-    <t>显示屏</t>
-  </si>
-  <si>
-    <t>RES</t>
-  </si>
-  <si>
-    <t>PC0</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>PB13</t>
-  </si>
-  <si>
-    <t>USERLED</t>
-  </si>
-  <si>
-    <t>指示灯</t>
-  </si>
-  <si>
-    <t>PB14</t>
-  </si>
-  <si>
-    <t>USERKEY</t>
-  </si>
-  <si>
-    <t>按键</t>
+    <t>MOTOR1_EN</t>
+  </si>
+  <si>
+    <t>底部步进电机EN</t>
   </si>
   <si>
     <t>PC10</t>
@@ -436,24 +299,6 @@
     <t>TX</t>
   </si>
   <si>
-    <t>PB10</t>
-  </si>
-  <si>
-    <t>USART3_TX</t>
-  </si>
-  <si>
-    <t>串口3输出串口调试端</t>
-  </si>
-  <si>
-    <t>PB11</t>
-  </si>
-  <si>
-    <t>USART3_RX</t>
-  </si>
-  <si>
-    <t>串口3输入</t>
-  </si>
-  <si>
     <t>PA13</t>
   </si>
   <si>
@@ -484,13 +329,19 @@
     <t>HSE_OUT</t>
   </si>
   <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>高电平点</t>
+  </si>
+  <si>
     <t>VDD</t>
   </si>
   <si>
-    <t>高电平点</t>
-  </si>
-  <si>
-    <t>3.3V</t>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>低电平点</t>
   </si>
   <si>
     <t>VCC</t>
@@ -502,12 +353,6 @@
     <t>VSS</t>
   </si>
   <si>
-    <t>低电平点</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
     <t>VBAT</t>
   </si>
   <si>
@@ -541,30 +386,6 @@
     <t>BOOT1</t>
   </si>
   <si>
-    <t>TB1_AO1</t>
-  </si>
-  <si>
-    <t>TB1_AO2</t>
-  </si>
-  <si>
-    <t>TB1_BO1</t>
-  </si>
-  <si>
-    <t>TB1_BO2</t>
-  </si>
-  <si>
-    <t>TB2_AO1</t>
-  </si>
-  <si>
-    <t>TB2_AO2</t>
-  </si>
-  <si>
-    <t>TB2_BO1</t>
-  </si>
-  <si>
-    <t>TB2_BO2</t>
-  </si>
-  <si>
     <t>数据位</t>
   </si>
   <si>
@@ -671,6 +492,15 @@
   </si>
   <si>
     <t>Bode_rate</t>
+  </si>
+  <si>
+    <t>张开</t>
+  </si>
+  <si>
+    <t>闭合</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -683,7 +513,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,12 +524,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -849,7 +673,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,18 +688,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1061,7 +873,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1085,6 +897,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1095,32 +920,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1241,70 +1040,76 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1313,10 +1118,10 @@
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1325,10 +1130,10 @@
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1337,10 +1142,10 @@
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1349,10 +1154,10 @@
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1361,63 +1166,45 @@
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1748,7 +1535,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F29" sqref="F29:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1763,222 +1550,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12">
         <v>1</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12">
         <v>1</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="12">
         <v>49.9</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <v>49.9</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12">
         <v>1</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <v>71.88</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>71.88</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12">
         <v>5</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12">
         <v>1</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12">
         <v>1</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12">
         <v>1</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="12">
         <v>1</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12">
         <v>2</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1991,10 +1778,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2016,947 +1803,547 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="4"/>
+      <c r="M1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="4"/>
+      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="N2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="M3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="N3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="M4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="N4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="M5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="J5" s="2" t="s">
+      <c r="N5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="M6" s="2" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="N6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="M7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="D7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="P7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="P8" s="2" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="D8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="P8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="P9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="P9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="P10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="P11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="J12" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="M12" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8" t="s">
+      <c r="G13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="H13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="G14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="J14" s="2" t="s">
+      <c r="H14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="M14" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="J15" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="C17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="J16" s="2" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="M16" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="G18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="J17" s="2" t="s">
+      <c r="H18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="4"/>
+      <c r="B19" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="G19" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="H19" s="4"/>
+      <c r="J19" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="J18" s="2" t="s">
+      <c r="K19" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="M18" s="2" t="s">
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="J20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="J19" s="2" t="s">
+      <c r="J21" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="13" t="s">
+      <c r="K21" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="13" t="s">
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="C23" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D23" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="J23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
+      <c r="K23" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="2"/>
-      <c r="B34" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H34" s="2"/>
-      <c r="J34" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="J35" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="J39" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K39" s="2"/>
-      <c r="M39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="10:14">
-      <c r="J40" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="K40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="10:14">
-      <c r="J41" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K41" s="2"/>
-      <c r="M41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="10:14">
-      <c r="J42" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="10:14">
-      <c r="J43" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K43" s="2"/>
-      <c r="M43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="10:14">
-      <c r="J44" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="K44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="10:14">
-      <c r="J45" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="K45" s="2"/>
-      <c r="M45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="10:14">
-      <c r="J46" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-    </row>
+      <c r="D24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="10:11">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" s="2" customFormat="1"/>
+    <row r="27" s="2" customFormat="1"/>
+    <row r="28" s="2" customFormat="1"/>
+    <row r="29" s="2" customFormat="1" spans="16:16">
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" s="2" customFormat="1"/>
+    <row r="31" s="2" customFormat="1"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="E12:E19"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -2968,7 +2355,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F29" sqref="F29:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2980,10 +2367,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
         <v>31</v>
@@ -2991,131 +2378,267 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="B14">
         <v>115200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1">
+        <v>500</v>
+      </c>
+      <c r="C1" s="1">
+        <v>800</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1450</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2100</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>-90</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1">
+        <v>90</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-45</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="14:14">
+      <c r="N18" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
